--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Inha-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Inha-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inha</t>
+  </si>
+  <si>
+    <t>Acvr2a</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Inha</t>
-  </si>
-  <si>
-    <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,10 +543,10 @@
         <v>1.171365</v>
       </c>
       <c r="I2">
-        <v>0.8496784414310771</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8496784414310771</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N2">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O2">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P2">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q2">
-        <v>4.214523634490001</v>
+        <v>5.566863615928334</v>
       </c>
       <c r="R2">
-        <v>37.93071271041001</v>
+        <v>50.101772543355</v>
       </c>
       <c r="S2">
-        <v>0.141634381807765</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="T2">
-        <v>0.141634381807765</v>
+        <v>0.2087950866344732</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +605,10 @@
         <v>1.171365</v>
       </c>
       <c r="I3">
-        <v>0.8496784414310771</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8496784414310771</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,13 +620,13 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N3">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O3">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P3">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q3">
         <v>11.33989762368667</v>
@@ -635,10 +635,10 @@
         <v>102.05907861318</v>
       </c>
       <c r="S3">
-        <v>0.3810915607520517</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="T3">
-        <v>0.3810915607520516</v>
+        <v>0.4253229592313036</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,10 +667,10 @@
         <v>1.171365</v>
       </c>
       <c r="I4">
-        <v>0.8496784414310771</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8496784414310771</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N4">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O4">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P4">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q4">
-        <v>7.641600141218333</v>
+        <v>7.852380505081666</v>
       </c>
       <c r="R4">
-        <v>68.774401270965</v>
+        <v>70.67142454573499</v>
       </c>
       <c r="S4">
-        <v>0.2568056098123077</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="T4">
-        <v>0.2568056098123077</v>
+        <v>0.2945174484164122</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -729,10 +729,10 @@
         <v>1.171365</v>
       </c>
       <c r="I5">
-        <v>0.8496784414310771</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8496784414310771</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N5">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O5">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P5">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q5">
-        <v>2.087316074328333</v>
+        <v>1.90270986139</v>
       </c>
       <c r="R5">
-        <v>18.785844668955</v>
+        <v>17.12438875251</v>
       </c>
       <c r="S5">
-        <v>0.07014688905895271</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="T5">
-        <v>0.07014688905895272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.06907766666666666</v>
-      </c>
-      <c r="H6">
-        <v>0.207233</v>
-      </c>
-      <c r="I6">
-        <v>0.1503215585689229</v>
-      </c>
-      <c r="J6">
-        <v>0.1503215585689229</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>10.793878</v>
-      </c>
-      <c r="N6">
-        <v>32.38163400000001</v>
-      </c>
-      <c r="O6">
-        <v>0.166691744666625</v>
-      </c>
-      <c r="P6">
-        <v>0.166691744666625</v>
-      </c>
-      <c r="Q6">
-        <v>0.7456159065246667</v>
-      </c>
-      <c r="R6">
-        <v>6.710543158722001</v>
-      </c>
-      <c r="S6">
-        <v>0.02505736285886001</v>
-      </c>
-      <c r="T6">
-        <v>0.02505736285886001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.06907766666666666</v>
-      </c>
-      <c r="H7">
-        <v>0.207233</v>
-      </c>
-      <c r="I7">
-        <v>0.1503215585689229</v>
-      </c>
-      <c r="J7">
-        <v>0.1503215585689229</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>29.04277733333333</v>
-      </c>
-      <c r="N7">
-        <v>87.12833199999999</v>
-      </c>
-      <c r="O7">
-        <v>0.448512686882105</v>
-      </c>
-      <c r="P7">
-        <v>0.448512686882105</v>
-      </c>
-      <c r="Q7">
-        <v>2.006207291706222</v>
-      </c>
-      <c r="R7">
-        <v>18.055865625356</v>
-      </c>
-      <c r="S7">
-        <v>0.06742112613005334</v>
-      </c>
-      <c r="T7">
-        <v>0.06742112613005334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.06907766666666666</v>
-      </c>
-      <c r="H8">
-        <v>0.207233</v>
-      </c>
-      <c r="I8">
-        <v>0.1503215585689229</v>
-      </c>
-      <c r="J8">
-        <v>0.1503215585689229</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>19.57101366666667</v>
-      </c>
-      <c r="N8">
-        <v>58.713041</v>
-      </c>
-      <c r="O8">
-        <v>0.3022385849637199</v>
-      </c>
-      <c r="P8">
-        <v>0.3022385849637199</v>
-      </c>
-      <c r="Q8">
-        <v>1.351919958394778</v>
-      </c>
-      <c r="R8">
-        <v>12.167279625553</v>
-      </c>
-      <c r="S8">
-        <v>0.04543297515141221</v>
-      </c>
-      <c r="T8">
-        <v>0.04543297515141221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.06907766666666666</v>
-      </c>
-      <c r="H9">
-        <v>0.207233</v>
-      </c>
-      <c r="I9">
-        <v>0.1503215585689229</v>
-      </c>
-      <c r="J9">
-        <v>0.1503215585689229</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>5.345855666666666</v>
-      </c>
-      <c r="N9">
-        <v>16.037567</v>
-      </c>
-      <c r="O9">
-        <v>0.08255698348755007</v>
-      </c>
-      <c r="P9">
-        <v>0.08255698348755008</v>
-      </c>
-      <c r="Q9">
-        <v>0.3692792357901111</v>
-      </c>
-      <c r="R9">
-        <v>3.323513122111</v>
-      </c>
-      <c r="S9">
-        <v>0.01241009442859736</v>
-      </c>
-      <c r="T9">
-        <v>0.01241009442859736</v>
+        <v>0.07136450571781099</v>
       </c>
     </row>
   </sheetData>
